--- a/data/flashcards.xlsx
+++ b/data/flashcards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\English-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\English-learning-main\English-learning-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53A160-8BEF-4857-B32F-B7D7419077F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85D8BF-A077-4431-80EC-7272F5A36C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="6400" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5933,7 +5933,7 @@
   <dimension ref="A1:G441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
